--- a/pred_ohlcv/54_21/2019-10-28 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 XLM ohlcv.xlsx
@@ -3330,7 +3330,7 @@
         <v>-5678144.411434431</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-5677294.667334431</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-5368981.24098242</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-5061826.48048242</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-5141860.96478242</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5141860.96478242</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4857717.85341349</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4623812.34921575</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4597229.17261575</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4547152.49501575</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4497759.258415749</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4497759.258415749</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4577061.476715749</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4619231.013815749</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-4618333.87161575</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-4582292.16371575</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4585206.47291575</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4703384.22161575</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4670490.22621575</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4693656.72261575</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4774362.598415749</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-4822134.090015749</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-4777702.276515749</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4826545.095715749</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4812456.328515749</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4807204.30311575</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4820163.23411575</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4820163.23411575</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4844931.884015749</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-4795176.390515749</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-4777905.33441575</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4740706.59021879</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-4749361.40301879</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4859699.74011879</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4949164.879118791</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4939980.934918791</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-5022921.934918791</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-5022921.934918791</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-5019131.133318791</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-8025369.225318792</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-13517218.21871879</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-13519674.09941879</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-13557932.89701879</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-13537037.78481879</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-13532851.96551879</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-13527851.96551879</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-13575346.04231879</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-13566755.02491879</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-13578442.98131879</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-13592763.95881879</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-13592763.95881879</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-10132107.49411879</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1182641.519318788</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1214330.526318788</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1211798.493918788</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-1185763.786118788</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-1185763.786118788</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-1108667.724418788</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1108667.724418788</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-967979.4394187882</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-967979.4394187882</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-900647.8856187882</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-900647.8856187882</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-873329.1079187882</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-873329.1079187882</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-850442.4515187882</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-850442.4515187882</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-842658.1202187883</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-878100.5863187882</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-928254.4999187882</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-921839.9067187882</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-751048.2276187883</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-751048.2276187883</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-664965.1130187883</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-80928.37409778844</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>172287.0649839416</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>318920.0491022115</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>594728.9600022116</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>631976.2200022116</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>607333.9657288817</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>607289.3367288817</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>475401.6420288817</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>515271.6861288817</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>604210.9017288818</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>604210.9017288818</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>588406.1915288818</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>565919.1051288818</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>560394.0051288818</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-930583.0663415386</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>5343024.567424201</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>9476165.192624202</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 XLM ohlcv.xlsx
@@ -3330,7 +3330,7 @@
         <v>-5678144.411434431</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-5677294.667334431</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-5680568.272334431</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5680568.272334431</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-5697500.587034431</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-5576103.563134431</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-5576443.413334431</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-5584473.246834431</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-5602714.577834431</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-5618653.018034431</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-5606153.019034431</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5606153.019034431</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-5614463.867834431</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-5614463.867834431</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-5582120.91741575</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5582120.91741575</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-5551414.33421575</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-5551414.33421575</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-5551404.33421575</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5555221.83121575</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-5525133.99361575</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-5368981.24098242</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-5061826.48048242</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-5141860.96478242</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5141860.96478242</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4857717.85341349</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4623812.34921575</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4597229.17261575</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4547152.49501575</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4497759.258415749</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4497759.258415749</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4577061.476715749</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4619231.013815749</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-4618333.87161575</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-4582292.16371575</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4585206.47291575</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4703384.22161575</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4670490.22621575</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4693656.72261575</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4774362.598415749</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-4822134.090015749</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-4777702.276515749</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4826545.095715749</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4812456.328515749</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4807204.30311575</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4820163.23411575</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4820163.23411575</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4844931.884015749</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-4795176.390515749</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-4777905.33441575</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4740706.59021879</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-4749361.40301879</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4859699.74011879</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4949164.879118791</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4939980.934918791</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-5022921.934918791</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-5022921.934918791</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-5019131.133318791</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-8025369.225318792</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-13517218.21871879</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-13519674.09941879</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-13557932.89701879</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-13537037.78481879</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-13532851.96551879</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-13527851.96551879</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-13575346.04231879</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-13566755.02491879</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-13578442.98131879</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-13592763.95881879</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-13592763.95881879</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-10132107.49411879</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1182641.519318788</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1214330.526318788</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1211798.493918788</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-1185763.786118788</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-1185763.786118788</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-1108667.724418788</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1108667.724418788</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-967979.4394187882</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-967979.4394187882</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-900647.8856187882</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-900647.8856187882</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-873329.1079187882</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-873329.1079187882</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-850442.4515187882</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-850442.4515187882</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-842658.1202187883</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-878100.5863187882</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-928254.4999187882</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-921839.9067187882</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-751048.2276187883</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-751048.2276187883</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-664965.1130187883</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-80928.37409778844</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>172287.0649839416</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>318920.0491022115</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>594728.9600022116</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>631976.2200022116</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>607333.9657288817</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>607289.3367288817</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>475401.6420288817</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>515271.6861288817</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-930583.0663415386</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>5361464.309824201</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>5343024.567424201</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
